--- a/vertx-zeus/up-ares/src/main/resources/plugin/excel/data/data.demo.xlsx
+++ b/vertx-zeus/up-ares/src/main/resources/plugin/excel/data/data.demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/vertx-zero/vertx-zeus/up-ares/src/main/resources/plugin/excel/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FDB79D-8702-AA47-9960-C8FB709B372F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B573B81-EB29-C24B-BA6B-5E6EFF794C9B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22840" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-USER" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="130">
   <si>
     <t>active</t>
   </si>
@@ -53,88 +53,373 @@
     <t>使用语言</t>
   </si>
   <si>
-    <t>接口主键</t>
-  </si>
-  <si>
-    <t>8c148b72-7348-4d4e-b604-3b7d6053ac1e</t>
-  </si>
-  <si>
-    <t>9744ae98-eac1-4825-b558-3e53c78940da</t>
-  </si>
-  <si>
-    <t>用户账号</t>
-  </si>
-  <si>
-    <t>真实姓名</t>
-  </si>
-  <si>
-    <t>账号导入</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>lang.yu</t>
-  </si>
-  <si>
-    <t>realname</t>
-  </si>
-  <si>
-    <t>管理员</t>
-  </si>
-  <si>
-    <t>基本用户</t>
-  </si>
-  <si>
-    <t>昵称</t>
-  </si>
-  <si>
-    <t>alias</t>
-  </si>
-  <si>
     <t>戒子猪</t>
   </si>
   <si>
     <t>玉尘</t>
   </si>
   <si>
-    <t>手机号</t>
-  </si>
-  <si>
-    <t>mobile</t>
-  </si>
-  <si>
-    <t>邮箱</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>lang.yu@hpe.com</t>
-  </si>
-  <si>
-    <t>silentbalanceyh@126.com</t>
-  </si>
-  <si>
     <t>15922611447</t>
   </si>
   <si>
     <t>15922611448</t>
   </si>
   <si>
-    <t>S_USER</t>
-  </si>
-  <si>
-    <t>sigma</t>
-  </si>
-  <si>
-    <t>统一标识符</t>
-  </si>
-  <si>
-    <t>kbm9LQBAsm8BPJQ7AIG9MVDgaF7azrWd</t>
+    <t>CI_DEPT</t>
+  </si>
+  <si>
+    <t>部门导入</t>
+  </si>
+  <si>
+    <t>部门主键</t>
+  </si>
+  <si>
+    <t>部门名称</t>
+  </si>
+  <si>
+    <t>部门编码</t>
+  </si>
+  <si>
+    <t>部门经理</t>
+  </si>
+  <si>
+    <t>联系人电话</t>
+  </si>
+  <si>
+    <t>联系人姓名</t>
+  </si>
+  <si>
+    <t>关联APP_ID</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>contactMobile</t>
+  </si>
+  <si>
+    <t>contactName</t>
+  </si>
+  <si>
+    <t>appId</t>
+  </si>
+  <si>
+    <t>DEPT1</t>
+  </si>
+  <si>
+    <t>DEPT2</t>
+  </si>
+  <si>
+    <t>DEPT3</t>
+  </si>
+  <si>
+    <t>DEPT4</t>
+  </si>
+  <si>
+    <t>DEPT5</t>
+  </si>
+  <si>
+    <t>DEPT6</t>
+  </si>
+  <si>
+    <t>DEPT7</t>
+  </si>
+  <si>
+    <t>DEPT8</t>
+  </si>
+  <si>
+    <t>DEPT9</t>
+  </si>
+  <si>
+    <t>DEPT10</t>
+  </si>
+  <si>
+    <t>部门1</t>
+  </si>
+  <si>
+    <t>部门2</t>
+  </si>
+  <si>
+    <t>部门3</t>
+  </si>
+  <si>
+    <t>部门4</t>
+  </si>
+  <si>
+    <t>部门5</t>
+  </si>
+  <si>
+    <t>部门6</t>
+  </si>
+  <si>
+    <t>部门7</t>
+  </si>
+  <si>
+    <t>部门8</t>
+  </si>
+  <si>
+    <t>部门9</t>
+  </si>
+  <si>
+    <t>部门10</t>
+  </si>
+  <si>
+    <t>部门11</t>
+  </si>
+  <si>
+    <t>部门12</t>
+  </si>
+  <si>
+    <t>部门13</t>
+  </si>
+  <si>
+    <t>部门14</t>
+  </si>
+  <si>
+    <t>部门15</t>
+  </si>
+  <si>
+    <t>部门16</t>
+  </si>
+  <si>
+    <t>部门17</t>
+  </si>
+  <si>
+    <t>部门18</t>
+  </si>
+  <si>
+    <t>部门19</t>
+  </si>
+  <si>
+    <t>部门20</t>
+  </si>
+  <si>
+    <t>部门21</t>
+  </si>
+  <si>
+    <t>部门22</t>
+  </si>
+  <si>
+    <t>部门23</t>
+  </si>
+  <si>
+    <t>部门24</t>
+  </si>
+  <si>
+    <t>部门25</t>
+  </si>
+  <si>
+    <t>CI10</t>
+  </si>
+  <si>
+    <t>CI11</t>
+  </si>
+  <si>
+    <t>CI12</t>
+  </si>
+  <si>
+    <t>CI13</t>
+  </si>
+  <si>
+    <t>CI14</t>
+  </si>
+  <si>
+    <t>CI15</t>
+  </si>
+  <si>
+    <t>CI16</t>
+  </si>
+  <si>
+    <t>CI17</t>
+  </si>
+  <si>
+    <t>CI18</t>
+  </si>
+  <si>
+    <t>CI19</t>
+  </si>
+  <si>
+    <t>CI20</t>
+  </si>
+  <si>
+    <t>CI21</t>
+  </si>
+  <si>
+    <t>CI22</t>
+  </si>
+  <si>
+    <t>CI23</t>
+  </si>
+  <si>
+    <t>CI24</t>
+  </si>
+  <si>
+    <t>花开</t>
+  </si>
+  <si>
+    <t>4019687f-0275-4a64-8b20-0667320e7d1f</t>
+  </si>
+  <si>
+    <t>6edb37ab-370c-4ffc-af83-bf5c29d1d7e7</t>
+  </si>
+  <si>
+    <t>e4212ee1-04ee-4bd7-93b1-89c3c03a39b5</t>
+  </si>
+  <si>
+    <t>c32feb98-649f-4fd8-a4ee-4ead72bb72d5</t>
+  </si>
+  <si>
+    <t>1cc467ef-c67e-4474-b87e-4d600cbedc32</t>
+  </si>
+  <si>
+    <t>eeb6514b-53a2-4034-a17d-97b9d8beeb3e</t>
+  </si>
+  <si>
+    <t>4e61166a-6153-44b2-acc2-b06945a31073</t>
+  </si>
+  <si>
+    <t>173be17a-86f1-426b-a7a9-39b346af2bad</t>
+  </si>
+  <si>
+    <t>640c73cd-e0eb-4d26-b79e-2f5a6f517b37</t>
+  </si>
+  <si>
+    <t>7ec34f74-5cdf-4dbb-b6c7-758199537f57</t>
+  </si>
+  <si>
+    <t>37436093-8c7c-453b-b8c8-2fa081063b31</t>
+  </si>
+  <si>
+    <t>8ab3479c-fcbe-48ea-a0fb-51a9a8f812bc</t>
+  </si>
+  <si>
+    <t>97be85c2-06cb-4c6f-8888-cc5a2c177c08</t>
+  </si>
+  <si>
+    <t>3cf1c5ac-0092-47bf-983c-44632554ff67</t>
+  </si>
+  <si>
+    <t>050d1cbf-e879-4447-b53d-019a699742d9</t>
+  </si>
+  <si>
+    <t>b5d5a6ae-f9bc-4a47-b9f3-3e9d91557f0c</t>
+  </si>
+  <si>
+    <t>0f08a96c-8791-4987-bc4d-b52b251e32f9</t>
+  </si>
+  <si>
+    <t>5b7ba954-cafb-48b1-820f-46edee22d9d4</t>
+  </si>
+  <si>
+    <t>925f515e-56fd-47ab-abdc-cfd83b8ba27d</t>
+  </si>
+  <si>
+    <t>a7e49297-f99b-4777-9e99-846e63095d2a</t>
+  </si>
+  <si>
+    <t>2b0ca279-386f-4075-b3c2-76a68672f029</t>
+  </si>
+  <si>
+    <t>b06d72c4-f1e9-4c52-b003-72fb3de0f859</t>
+  </si>
+  <si>
+    <t>b2a306ff-5046-4d0a-a55f-de6f9cd889d5</t>
+  </si>
+  <si>
+    <t>08b36d27-7942-4b13-ad36-1cf752871133</t>
+  </si>
+  <si>
+    <t>a6885f63-3ec0-4e90-a4d8-b5a64ee4cebc</t>
+  </si>
+  <si>
+    <t>猴子</t>
+  </si>
+  <si>
+    <t>糊涂</t>
+  </si>
+  <si>
+    <t>姓名1</t>
+  </si>
+  <si>
+    <t>姓名2</t>
+  </si>
+  <si>
+    <t>姓名3</t>
+  </si>
+  <si>
+    <t>姓名4</t>
+  </si>
+  <si>
+    <t>姓名5</t>
+  </si>
+  <si>
+    <t>姓名6</t>
+  </si>
+  <si>
+    <t>姓名7</t>
+  </si>
+  <si>
+    <t>姓名8</t>
+  </si>
+  <si>
+    <t>姓名9</t>
+  </si>
+  <si>
+    <t>姓名10</t>
+  </si>
+  <si>
+    <t>姓名11</t>
+  </si>
+  <si>
+    <t>姓名12</t>
+  </si>
+  <si>
+    <t>姓名13</t>
+  </si>
+  <si>
+    <t>姓名14</t>
+  </si>
+  <si>
+    <t>姓名15</t>
+  </si>
+  <si>
+    <t>姓名16</t>
+  </si>
+  <si>
+    <t>姓名17</t>
+  </si>
+  <si>
+    <t>姓名18</t>
+  </si>
+  <si>
+    <t>姓名19</t>
+  </si>
+  <si>
+    <t>姓名20</t>
+  </si>
+  <si>
+    <t>姓名21</t>
+  </si>
+  <si>
+    <t>姓名22</t>
+  </si>
+  <si>
+    <t>姓名23</t>
+  </si>
+  <si>
+    <t>姓名24</t>
+  </si>
+  <si>
+    <t>姓名25</t>
+  </si>
+  <si>
+    <t>5af3348f-bf72-4bb2-b12d-4c0fad9062f9</t>
   </si>
 </sst>
 </file>
@@ -164,9 +449,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -228,11 +511,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -283,18 +565,14 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="11" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -607,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE8EFB5-630A-0B48-8E56-AEAA85248043}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -639,36 +917,36 @@
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>5</v>
@@ -677,7 +955,7 @@
         <v>6</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -685,19 +963,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>0</v>
@@ -706,27 +984,27 @@
         <v>1</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>28</v>
+        <v>9</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="G5" s="9" t="b">
         <v>1</v>
@@ -735,46 +1013,734 @@
         <v>3</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="10" t="str">
+        <f>I5</f>
+        <v>5af3348f-bf72-4bb2-b12d-4c0fad9062f9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="10" t="str">
+        <f t="shared" ref="I7:I29" si="0">I6</f>
+        <v>5af3348f-bf72-4bb2-b12d-4c0fad9062f9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>5af3348f-bf72-4bb2-b12d-4c0fad9062f9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" s="10" t="s">
+      <c r="C9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>5af3348f-bf72-4bb2-b12d-4c0fad9062f9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>5af3348f-bf72-4bb2-b12d-4c0fad9062f9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>5af3348f-bf72-4bb2-b12d-4c0fad9062f9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>5af3348f-bf72-4bb2-b12d-4c0fad9062f9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>34</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>5af3348f-bf72-4bb2-b12d-4c0fad9062f9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>5af3348f-bf72-4bb2-b12d-4c0fad9062f9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>5af3348f-bf72-4bb2-b12d-4c0fad9062f9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>5af3348f-bf72-4bb2-b12d-4c0fad9062f9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>5af3348f-bf72-4bb2-b12d-4c0fad9062f9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>5af3348f-bf72-4bb2-b12d-4c0fad9062f9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>5af3348f-bf72-4bb2-b12d-4c0fad9062f9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>5af3348f-bf72-4bb2-b12d-4c0fad9062f9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>5af3348f-bf72-4bb2-b12d-4c0fad9062f9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>5af3348f-bf72-4bb2-b12d-4c0fad9062f9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>5af3348f-bf72-4bb2-b12d-4c0fad9062f9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>5af3348f-bf72-4bb2-b12d-4c0fad9062f9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>5af3348f-bf72-4bb2-b12d-4c0fad9062f9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>5af3348f-bf72-4bb2-b12d-4c0fad9062f9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G27" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>5af3348f-bf72-4bb2-b12d-4c0fad9062f9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G28" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I28" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>5af3348f-bf72-4bb2-b12d-4c0fad9062f9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>5af3348f-bf72-4bb2-b12d-4c0fad9062f9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:I2"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="F6" r:id="rId1" xr:uid="{493DFD13-924D-C948-A8A8-E24975239E6F}"/>
-    <hyperlink ref="F5" r:id="rId2" xr:uid="{3A1D81C4-3457-FA45-96B6-BE833693112C}"/>
-  </hyperlinks>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>